--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Psen1-Notch4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Psen1-Notch4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.9814279080231</v>
+        <v>25.00841100000001</v>
       </c>
       <c r="H2">
-        <v>20.9814279080231</v>
+        <v>75.02523300000001</v>
       </c>
       <c r="I2">
-        <v>0.379444646294427</v>
+        <v>0.4156829172908309</v>
       </c>
       <c r="J2">
-        <v>0.379444646294427</v>
+        <v>0.415682917290831</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.4376248268326</v>
+        <v>29.546424</v>
       </c>
       <c r="N2">
-        <v>11.4376248268326</v>
+        <v>88.63927200000001</v>
       </c>
       <c r="O2">
-        <v>0.8122641646577388</v>
+        <v>0.9033225104610835</v>
       </c>
       <c r="P2">
-        <v>0.8122641646577388</v>
+        <v>0.9033225104610834</v>
       </c>
       <c r="Q2">
-        <v>239.9777007432034</v>
+        <v>738.9091149722642</v>
       </c>
       <c r="R2">
-        <v>239.9777007432034</v>
+        <v>6650.182034750378</v>
       </c>
       <c r="S2">
-        <v>0.3082092886561939</v>
+        <v>0.3754957364029403</v>
       </c>
       <c r="T2">
-        <v>0.3082092886561939</v>
+        <v>0.3754957364029403</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.9814279080231</v>
+        <v>25.00841100000001</v>
       </c>
       <c r="H3">
-        <v>20.9814279080231</v>
+        <v>75.02523300000001</v>
       </c>
       <c r="I3">
-        <v>0.379444646294427</v>
+        <v>0.4156829172908309</v>
       </c>
       <c r="J3">
-        <v>0.379444646294427</v>
+        <v>0.415682917290831</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.48983665839063</v>
+        <v>1.672785333333334</v>
       </c>
       <c r="N3">
-        <v>1.48983665839063</v>
+        <v>5.018356000000001</v>
       </c>
       <c r="O3">
-        <v>0.1058035166501666</v>
+        <v>0.05114204841740398</v>
       </c>
       <c r="P3">
-        <v>0.1058035166501666</v>
+        <v>0.05114204841740398</v>
       </c>
       <c r="Q3">
-        <v>31.25890044275304</v>
+        <v>41.83370313077202</v>
       </c>
       <c r="R3">
-        <v>31.25890044275304</v>
+        <v>376.5033281769481</v>
       </c>
       <c r="S3">
-        <v>0.04014657795202899</v>
+        <v>0.02125887588237541</v>
       </c>
       <c r="T3">
-        <v>0.04014657795202899</v>
+        <v>0.02125887588237541</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.9814279080231</v>
+        <v>25.00841100000001</v>
       </c>
       <c r="H4">
-        <v>20.9814279080231</v>
+        <v>75.02523300000001</v>
       </c>
       <c r="I4">
-        <v>0.379444646294427</v>
+        <v>0.4156829172908309</v>
       </c>
       <c r="J4">
-        <v>0.379444646294427</v>
+        <v>0.415682917290831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.15370240762441</v>
+        <v>1.489401</v>
       </c>
       <c r="N4">
-        <v>1.15370240762441</v>
+        <v>4.468203</v>
       </c>
       <c r="O4">
-        <v>0.08193231869209473</v>
+        <v>0.04553544112151264</v>
       </c>
       <c r="P4">
-        <v>0.08193231869209473</v>
+        <v>0.04553544112151264</v>
       </c>
       <c r="Q4">
-        <v>24.20632389288424</v>
+        <v>37.24755235181101</v>
       </c>
       <c r="R4">
-        <v>24.20632389288424</v>
+        <v>335.2279711662991</v>
       </c>
       <c r="S4">
-        <v>0.03108877968620416</v>
+        <v>0.01892830500551524</v>
       </c>
       <c r="T4">
-        <v>0.03108877968620416</v>
+        <v>0.01892830500551524</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.3656179157908</v>
+        <v>20.496019</v>
       </c>
       <c r="H5">
-        <v>20.3656179157908</v>
+        <v>61.488057</v>
       </c>
       <c r="I5">
-        <v>0.3683078539983313</v>
+        <v>0.340679180727168</v>
       </c>
       <c r="J5">
-        <v>0.3683078539983313</v>
+        <v>0.3406791807271681</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.4376248268326</v>
+        <v>29.546424</v>
       </c>
       <c r="N5">
-        <v>11.4376248268326</v>
+        <v>88.63927200000001</v>
       </c>
       <c r="O5">
-        <v>0.8122641646577388</v>
+        <v>0.9033225104610835</v>
       </c>
       <c r="P5">
-        <v>0.8122641646577388</v>
+        <v>0.9033225104610834</v>
       </c>
       <c r="Q5">
-        <v>232.9342970874357</v>
+        <v>605.5840676860561</v>
       </c>
       <c r="R5">
-        <v>232.9342970874357</v>
+        <v>5450.256609174504</v>
       </c>
       <c r="S5">
-        <v>0.299163271364839</v>
+        <v>0.3077431727962906</v>
       </c>
       <c r="T5">
-        <v>0.299163271364839</v>
+        <v>0.3077431727962906</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.3656179157908</v>
+        <v>20.496019</v>
       </c>
       <c r="H6">
-        <v>20.3656179157908</v>
+        <v>61.488057</v>
       </c>
       <c r="I6">
-        <v>0.3683078539983313</v>
+        <v>0.340679180727168</v>
       </c>
       <c r="J6">
-        <v>0.3683078539983313</v>
+        <v>0.3406791807271681</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.48983665839063</v>
+        <v>1.672785333333334</v>
       </c>
       <c r="N6">
-        <v>1.48983665839063</v>
+        <v>5.018356000000001</v>
       </c>
       <c r="O6">
-        <v>0.1058035166501666</v>
+        <v>0.05114204841740398</v>
       </c>
       <c r="P6">
-        <v>0.1058035166501666</v>
+        <v>0.05114204841740398</v>
       </c>
       <c r="Q6">
-        <v>30.34144414172211</v>
+        <v>34.28543997492134</v>
       </c>
       <c r="R6">
-        <v>30.34144414172211</v>
+        <v>308.568959774292</v>
       </c>
       <c r="S6">
-        <v>0.03896826616289958</v>
+        <v>0.01742303115555035</v>
       </c>
       <c r="T6">
-        <v>0.03896826616289958</v>
+        <v>0.01742303115555035</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.3656179157908</v>
+        <v>20.496019</v>
       </c>
       <c r="H7">
-        <v>20.3656179157908</v>
+        <v>61.488057</v>
       </c>
       <c r="I7">
-        <v>0.3683078539983313</v>
+        <v>0.340679180727168</v>
       </c>
       <c r="J7">
-        <v>0.3683078539983313</v>
+        <v>0.3406791807271681</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.15370240762441</v>
+        <v>1.489401</v>
       </c>
       <c r="N7">
-        <v>1.15370240762441</v>
+        <v>4.468203</v>
       </c>
       <c r="O7">
-        <v>0.08193231869209473</v>
+        <v>0.04553544112151264</v>
       </c>
       <c r="P7">
-        <v>0.08193231869209473</v>
+        <v>0.04553544112151264</v>
       </c>
       <c r="Q7">
-        <v>23.49586242220666</v>
+        <v>30.526791194619</v>
       </c>
       <c r="R7">
-        <v>23.49586242220666</v>
+        <v>274.741120751571</v>
       </c>
       <c r="S7">
-        <v>0.03017631647059278</v>
+        <v>0.01551297677532712</v>
       </c>
       <c r="T7">
-        <v>0.03017631647059278</v>
+        <v>0.01551297677532712</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.9480495555072</v>
+        <v>14.65779933333333</v>
       </c>
       <c r="H8">
-        <v>13.9480495555072</v>
+        <v>43.973398</v>
       </c>
       <c r="I8">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="J8">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.4376248268326</v>
+        <v>29.546424</v>
       </c>
       <c r="N8">
-        <v>11.4376248268326</v>
+        <v>88.63927200000001</v>
       </c>
       <c r="O8">
-        <v>0.8122641646577388</v>
+        <v>0.9033225104610835</v>
       </c>
       <c r="P8">
-        <v>0.8122641646577388</v>
+        <v>0.9033225104610834</v>
       </c>
       <c r="Q8">
-        <v>159.5325578819606</v>
+        <v>433.0855540095841</v>
       </c>
       <c r="R8">
-        <v>159.5325578819606</v>
+        <v>3897.769986086257</v>
       </c>
       <c r="S8">
-        <v>0.2048916046367059</v>
+        <v>0.2200836012618525</v>
       </c>
       <c r="T8">
-        <v>0.2048916046367059</v>
+        <v>0.2200836012618525</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.9480495555072</v>
+        <v>14.65779933333333</v>
       </c>
       <c r="H9">
-        <v>13.9480495555072</v>
+        <v>43.973398</v>
       </c>
       <c r="I9">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="J9">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.48983665839063</v>
+        <v>1.672785333333334</v>
       </c>
       <c r="N9">
-        <v>1.48983665839063</v>
+        <v>5.018356000000001</v>
       </c>
       <c r="O9">
-        <v>0.1058035166501666</v>
+        <v>0.05114204841740398</v>
       </c>
       <c r="P9">
-        <v>0.1058035166501666</v>
+        <v>0.05114204841740398</v>
       </c>
       <c r="Q9">
-        <v>20.78031554084376</v>
+        <v>24.51935174374312</v>
       </c>
       <c r="R9">
-        <v>20.78031554084376</v>
+        <v>220.6741656936881</v>
       </c>
       <c r="S9">
-        <v>0.02668867253523804</v>
+        <v>0.01246014137947822</v>
       </c>
       <c r="T9">
-        <v>0.02668867253523804</v>
+        <v>0.01246014137947822</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.9480495555072</v>
+        <v>14.65779933333333</v>
       </c>
       <c r="H10">
-        <v>13.9480495555072</v>
+        <v>43.973398</v>
       </c>
       <c r="I10">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="J10">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.15370240762441</v>
+        <v>1.489401</v>
       </c>
       <c r="N10">
-        <v>1.15370240762441</v>
+        <v>4.468203</v>
       </c>
       <c r="O10">
-        <v>0.08193231869209473</v>
+        <v>0.04553544112151264</v>
       </c>
       <c r="P10">
-        <v>0.08193231869209473</v>
+        <v>0.04553544112151264</v>
       </c>
       <c r="Q10">
-        <v>16.09189835385324</v>
+        <v>21.831340984866</v>
       </c>
       <c r="R10">
-        <v>16.09189835385324</v>
+        <v>196.482068863794</v>
       </c>
       <c r="S10">
-        <v>0.0206672225352978</v>
+        <v>0.01109415934067027</v>
       </c>
       <c r="T10">
-        <v>0.0206672225352978</v>
+        <v>0.01109415934067027</v>
       </c>
     </row>
   </sheetData>
